--- a/medicine/Enfance/Rémi_Saillard/Rémi_Saillard.xlsx
+++ b/medicine/Enfance/Rémi_Saillard/Rémi_Saillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Saillard</t>
+          <t>Rémi_Saillard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rémi Saillard, né le 31 octobre 1960 à Champagnole (Jura), est un illustrateur français, principalement d'œuvres de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Saillard</t>
+          <t>Rémi_Saillard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rémi Saillard a fait ses études à l'École supérieure des arts décoratifs de Strasbourg.
 Il a contribué à des magazines de Bayard Presse, comme Youpi.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Saillard</t>
+          <t>Rémi_Saillard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pirates en péril !, Agnès de Lestrade, ill. de Rémi Saillard, Nathan, L'énigme des vacances / lire pour réviser,  (ISBN 9782091867991)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pirates en péril !, Agnès de Lestrade, ill. de Rémi Saillard, Nathan, L'énigme des vacances / lire pour réviser,  (ISBN 9782091867991).
 Bonnets rouges et bonnets blancs : un conte antillais, Praline Gay-Para, ill. Rémi Saillard, Didier Jeunesse, 2014. Prix Bernard Versele 2017, catégorie 4 chouettes.
 Comment on écrit des histoires ?, Yaël Hassan et Roland Fuentès ; illustrations de Rémi Saillard, Syros, 2015
 L'Abécédaire des Pyrénées, Bénédicte Boucays et Geneviève Laurent ; illustrations de Rémi Saillard, Privat Jeunesse, 2020
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_Saillard</t>
+          <t>Rémi_Saillard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023 : prix 2023 du Livre Environnement de la fondation Veolia, mention jeunesse, pour La Bonne Idée de monsieur Johnson, écrit par Pierre Grosz, publié aux éditions La cabane bleue[2]
-2020 : prix "Album pour les grands de Boé", pour Malok, écrit par Gilles Baum, éditions Gautier-Languereau[3]
-2017 : Prix Bernard Versele catégorie 4 chouettes[4], pour Bonnets rouges et bonnets blancs : un conte antillais, écrit par Praline Gay-Para, qu'il a illustré.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023 : prix 2023 du Livre Environnement de la fondation Veolia, mention jeunesse, pour La Bonne Idée de monsieur Johnson, écrit par Pierre Grosz, publié aux éditions La cabane bleue
+2020 : prix "Album pour les grands de Boé", pour Malok, écrit par Gilles Baum, éditions Gautier-Languereau
+2017 : Prix Bernard Versele catégorie 4 chouettes, pour Bonnets rouges et bonnets blancs : un conte antillais, écrit par Praline Gay-Para, qu'il a illustré.</t>
         </is>
       </c>
     </row>
